--- a/data/Recharge_Reconciliation_Report.xlsx
+++ b/data/Recharge_Reconciliation_Report.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Mismatched Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Not in Server" sheetId="2" r:id="rId2"/>
-    <sheet name="Not in Excel" sheetId="3" r:id="rId3"/>
+    <sheet name="not_in_Portal" sheetId="2" r:id="rId2"/>
+    <sheet name="ot_in_vendor" sheetId="3" r:id="rId3"/>
     <sheet name="Vendor Success IHUB InProgress" sheetId="4" r:id="rId4"/>
+    <sheet name="Vendor Success IHUB Failed" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="171">
   <si>
     <t>TransactionRefNum</t>
   </si>
@@ -2863,4 +2864,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>